--- a/data/trans_orig/IP07C25_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C25_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A3300D1-E7ED-4FF7-8485-757C6F9390BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1524D1B-D99F-44BF-B2F2-9475F1F1BAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{23376C71-B35E-482D-89FF-3E912703EF53}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{373907AE-0A7E-4A23-9F96-5DB3A3299593}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>46,64%</t>
   </si>
   <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
   </si>
   <si>
     <t>45,51%</t>
   </si>
   <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
   </si>
   <si>
     <t>46,13%</t>
   </si>
   <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -104,28 +104,28 @@
     <t>20,62%</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
   </si>
   <si>
     <t>47,4%</t>
   </si>
   <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
   </si>
   <si>
     <t>32,7%</t>
   </si>
   <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
   </si>
   <si>
     <t>Moderadamente</t>
@@ -134,268 +134,268 @@
     <t>13,17%</t>
   </si>
   <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>Un Poco</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>Un Poco</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
   </si>
   <si>
     <t>2,74%</t>
@@ -410,124 +410,124 @@
     <t>51,46%</t>
   </si>
   <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
   </si>
   <si>
     <t>48,25%</t>
   </si>
   <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
   </si>
   <si>
     <t>50,07%</t>
   </si>
   <si>
-    <t>44,97%</t>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
   </si>
   <si>
     <t>34,21%</t>
   </si>
   <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
   </si>
   <si>
     <t>39,06%</t>
   </si>
   <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
   </si>
   <si>
     <t>36,3%</t>
   </si>
   <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
   </si>
   <si>
     <t>11,45%</t>
   </si>
   <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
   </si>
   <si>
     <t>10,89%</t>
   </si>
   <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
   </si>
   <si>
     <t>11,21%</t>
   </si>
   <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
+    <t>3,72%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,15%</t>
+    <t>1,09%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>3,82%</t>
+    <t>3,5%</t>
   </si>
   <si>
     <t>0,09%</t>
   </si>
   <si>
-    <t>1,47%</t>
+    <t>1,48%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -942,7 +942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4A7378-4DE1-4651-8E9D-30D47DD3D92A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B2E2E0-30FB-469A-8E06-733CA5E80001}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1560,10 +1560,10 @@
         <v>87</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1584,7 +1584,7 @@
         <v>35</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -1593,13 +1593,13 @@
         <v>1578</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -1608,13 +1608,13 @@
         <v>1578</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1670,7 +1670,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1682,13 +1682,13 @@
         <v>28534</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -1697,13 +1697,13 @@
         <v>20327</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>64</v>
@@ -1712,13 +1712,13 @@
         <v>48862</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1733,13 +1733,13 @@
         <v>22388</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -1748,13 +1748,13 @@
         <v>19401</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>58</v>
@@ -1763,13 +1763,13 @@
         <v>41790</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1784,13 +1784,13 @@
         <v>2237</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -1799,13 +1799,13 @@
         <v>819</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -1814,10 +1814,10 @@
         <v>3057</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>119</v>
@@ -2026,7 +2026,7 @@
         <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2041,13 +2041,13 @@
         <v>91161</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>114</v>
@@ -2056,13 +2056,13 @@
         <v>79110</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>234</v>
@@ -2071,13 +2071,13 @@
         <v>170270</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,13 +2092,13 @@
         <v>30499</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H24" s="7">
         <v>22</v>
@@ -2107,13 +2107,13 @@
         <v>22055</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M24" s="7">
         <v>53</v>
@@ -2122,13 +2122,13 @@
         <v>52554</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,13 +2143,13 @@
         <v>7095</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2158,13 +2158,13 @@
         <v>2069</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -2173,10 +2173,10 @@
         <v>9163</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>157</v>
@@ -2224,7 +2224,7 @@
         <v>2164</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>162</v>

--- a/data/trans_orig/IP07C25_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C25_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1524D1B-D99F-44BF-B2F2-9475F1F1BAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0076E8E9-BB9A-4B91-8715-94D17028FEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{373907AE-0A7E-4A23-9F96-5DB3A3299593}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E1C23D27-C2FE-4577-BF3C-13BF1D801B19}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="181">
   <si>
     <t>Menores según frecuencia de ir bien en el colegio en 2023 (Tasa respuesta: 30,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,466 +68,514 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Muchísimo</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>13,17%</t>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
   </si>
   <si>
     <t>3,28%</t>
   </si>
   <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>Un Poco</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
   </si>
   <si>
     <t>7,94%</t>
   </si>
   <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -942,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B2E2E0-30FB-469A-8E06-733CA5E80001}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D630C1BF-DEAB-4A3D-B92E-47D03D08D085}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1060,10 +1108,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>7891</v>
+        <v>4168</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1075,10 +1123,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>6330</v>
+        <v>2985</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1090,10 +1138,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>14221</v>
+        <v>7153</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1114,7 +1162,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>3489</v>
+        <v>3149</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1129,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>6593</v>
+        <v>8692</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1144,7 +1192,7 @@
         <v>15</v>
       </c>
       <c r="N5" s="7">
-        <v>10082</v>
+        <v>11841</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1162,10 +1210,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7">
-        <v>2228</v>
+        <v>5090</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1177,10 +1225,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>3207</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1192,10 +1240,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N6" s="7">
-        <v>2228</v>
+        <v>8297</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1213,46 +1261,46 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>2724</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>987</v>
+        <v>910</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>3710</v>
+        <v>910</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>47</v>
@@ -1264,46 +1312,46 @@
         <v>48</v>
       </c>
       <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
-        <v>586</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>961</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>586</v>
+        <v>961</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>51</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>52</v>
@@ -1315,25 +1363,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7">
+        <v>12407</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="7">
         <v>21</v>
       </c>
-      <c r="D9" s="7">
-        <v>16918</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="7">
-        <v>18</v>
-      </c>
       <c r="I9" s="7">
-        <v>13910</v>
+        <v>16754</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>53</v>
@@ -1348,7 +1396,7 @@
         <v>39</v>
       </c>
       <c r="N9" s="7">
-        <v>30827</v>
+        <v>29162</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>53</v>
@@ -1368,10 +1416,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="D10" s="7">
-        <v>100689</v>
+        <v>42848</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>55</v>
@@ -1386,7 +1434,7 @@
         <v>93</v>
       </c>
       <c r="I10" s="7">
-        <v>71077</v>
+        <v>94805</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>58</v>
@@ -1398,10 +1446,10 @@
         <v>60</v>
       </c>
       <c r="M10" s="7">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="N10" s="7">
-        <v>171766</v>
+        <v>137653</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>61</v>
@@ -1419,10 +1467,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D11" s="7">
-        <v>65284</v>
+        <v>89524</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>64</v>
@@ -1434,10 +1482,10 @@
         <v>66</v>
       </c>
       <c r="H11" s="7">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="I11" s="7">
-        <v>53115</v>
+        <v>81103</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>67</v>
@@ -1449,10 +1497,10 @@
         <v>69</v>
       </c>
       <c r="M11" s="7">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="N11" s="7">
-        <v>118399</v>
+        <v>170627</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>70</v>
@@ -1470,10 +1518,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D12" s="7">
-        <v>26034</v>
+        <v>19067</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>73</v>
@@ -1485,10 +1533,10 @@
         <v>75</v>
       </c>
       <c r="H12" s="7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I12" s="7">
-        <v>21236</v>
+        <v>15922</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>76</v>
@@ -1500,10 +1548,10 @@
         <v>78</v>
       </c>
       <c r="M12" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N12" s="7">
-        <v>47270</v>
+        <v>34989</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>79</v>
@@ -1521,10 +1569,10 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>4371</v>
+        <v>6564</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>82</v>
@@ -1536,34 +1584,34 @@
         <v>84</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>1082</v>
+        <v>3592</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>85</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M13" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>5453</v>
+        <v>10156</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1572,49 +1620,49 @@
         <v>48</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>543</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>1578</v>
+        <v>7278</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N14" s="7">
-        <v>1578</v>
+        <v>7821</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1623,10 +1671,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="D15" s="7">
-        <v>196378</v>
+        <v>158546</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>53</v>
@@ -1638,10 +1686,10 @@
         <v>53</v>
       </c>
       <c r="H15" s="7">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="I15" s="7">
-        <v>148088</v>
+        <v>202700</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>53</v>
@@ -1656,7 +1704,7 @@
         <v>411</v>
       </c>
       <c r="N15" s="7">
-        <v>344466</v>
+        <v>361246</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>53</v>
@@ -1670,55 +1718,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D16" s="7">
-        <v>28534</v>
+        <v>17652</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I16" s="7">
-        <v>20327</v>
+        <v>23766</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M16" s="7">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="N16" s="7">
-        <v>48862</v>
+        <v>41419</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1727,49 +1775,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D17" s="7">
-        <v>22388</v>
+        <v>17734</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="H17" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I17" s="7">
-        <v>19401</v>
+        <v>18270</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="M17" s="7">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="N17" s="7">
-        <v>41790</v>
+        <v>36003</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1781,46 +1829,46 @@
         <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>2237</v>
+        <v>2084</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>819</v>
+        <v>2647</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N18" s="7">
-        <v>3057</v>
+        <v>4731</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1829,49 +1877,49 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>4414</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>5004</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1880,49 +1928,49 @@
         <v>48</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>692</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>3596</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>4288</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1931,25 +1979,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>57</v>
+      </c>
+      <c r="D21" s="7">
+        <v>38752</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="7">
         <v>69</v>
       </c>
-      <c r="D21" s="7">
-        <v>53160</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="7">
-        <v>57</v>
-      </c>
       <c r="I21" s="7">
-        <v>40548</v>
+        <v>52693</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>53</v>
@@ -1964,7 +2012,7 @@
         <v>126</v>
       </c>
       <c r="N21" s="7">
-        <v>93708</v>
+        <v>91445</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>53</v>
@@ -1984,49 +2032,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="D22" s="7">
-        <v>137114</v>
+        <v>64668</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="H22" s="7">
         <v>128</v>
       </c>
       <c r="I22" s="7">
-        <v>97735</v>
+        <v>121557</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="M22" s="7">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="N22" s="7">
-        <v>234849</v>
+        <v>186225</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2035,49 +2083,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D23" s="7">
-        <v>91161</v>
+        <v>110406</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="H23" s="7">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="I23" s="7">
-        <v>79110</v>
+        <v>108065</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="M23" s="7">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="N23" s="7">
-        <v>170270</v>
+        <v>218472</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,49 +2134,49 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D24" s="7">
-        <v>30499</v>
+        <v>26242</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="H24" s="7">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I24" s="7">
-        <v>22055</v>
+        <v>21775</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="M24" s="7">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="N24" s="7">
-        <v>52554</v>
+        <v>48017</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,49 +2185,49 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="7">
-        <v>7095</v>
+        <v>7154</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="H25" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I25" s="7">
-        <v>2069</v>
+        <v>8916</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="M25" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N25" s="7">
-        <v>9163</v>
+        <v>16069</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2188,49 +2236,49 @@
         <v>48</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>586</v>
+        <v>1236</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="H26" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I26" s="7">
-        <v>1578</v>
+        <v>11834</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="M26" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="N26" s="7">
-        <v>2164</v>
+        <v>13070</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2239,10 +2287,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="D27" s="7">
-        <v>266455</v>
+        <v>209705</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>53</v>
@@ -2254,10 +2302,10 @@
         <v>53</v>
       </c>
       <c r="H27" s="7">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="I27" s="7">
-        <v>202546</v>
+        <v>272147</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>53</v>
@@ -2272,7 +2320,7 @@
         <v>576</v>
       </c>
       <c r="N27" s="7">
-        <v>469001</v>
+        <v>481853</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>53</v>
@@ -2286,7 +2334,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
